--- a/guide41_login.xlsx
+++ b/guide41_login.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB191064-1B04-4BA3-8D07-E86C659BEC9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4980AE6-363A-4647-9A94-895E667803E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="p1" sheetId="3" r:id="rId1"/>
+    <sheet name="index" sheetId="4" r:id="rId1"/>
+    <sheet name="p1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>header1</t>
   </si>
@@ -119,11 +120,29 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>広大moodle マニュアル guide41-login</t>
+    <t>index</t>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _ログイン/ログアウト</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒロダイ </t>
     </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログイン/ログアウト</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;ログイン/ログアウト&lt;/h3&gt;&lt;br&gt;
+広大moodleへのログイン、ログアウトの方法を説明します。
+&lt;br &gt;</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -203,7 +222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,6 +241,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,11 +562,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A65C027-461C-42B5-9A75-6C6070AF7C8F}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22334E2-1BEA-460B-9D17-129B263B506E}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -576,8 +665,8 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
+      <c r="B4" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -721,12 +810,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -979,27 +1077,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1024,12 +1116,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41_login.xlsx
+++ b/guide41_login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4980AE6-363A-4647-9A94-895E667803E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9E2B95-F43B-49F6-958C-999CC53E2CCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="4" r:id="rId1"/>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A65C027-461C-42B5-9A75-6C6070AF7C8F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -628,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22334E2-1BEA-460B-9D17-129B263B506E}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -810,24 +810,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1076,6 +1058,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1086,17 +1086,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1115,6 +1104,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>

--- a/guide41_login.xlsx
+++ b/guide41_login.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9E2B95-F43B-49F6-958C-999CC53E2CCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E88053-A85C-4A92-8185-7457F493009E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="4" r:id="rId1"/>
     <sheet name="p1" sheetId="3" r:id="rId2"/>
+    <sheet name="p2" sheetId="5" r:id="rId3"/>
+    <sheet name="p3" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>header1</t>
   </si>
@@ -68,10 +70,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログイン／ログアウト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>login1.png</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -83,33 +81,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>広大moodleへのログイン、ログアウトの方法を説明します。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#access"&gt;広大moodleへアクセスする&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#login"&gt;広大moodleへログインする&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#logout"&gt;広大moodleからログアウトする&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <rPh sb="0" eb="2">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="login"&gt;&lt;/a&gt;広大moodleへログインする&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="logout"&gt;&lt;/a&gt;広大moodleからログアウトする&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="access"&gt;&lt;/a&gt;広大moodleへアクセスする&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -143,6 +115,15 @@
 広大moodleへのログイン、ログアウトの方法を説明します。
 &lt;br &gt;</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大moodleへアクセスする</t>
+  </si>
+  <si>
+    <t>広大moodleへログインする</t>
+  </si>
+  <si>
+    <t>広大moodleからログアウトする</t>
   </si>
 </sst>
 </file>
@@ -566,13 +547,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="2" max="2" width="56.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -580,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -588,30 +569,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -626,10 +607,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22334E2-1BEA-460B-9D17-129B263B506E}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0046895-808A-4980-A292-EDEC4491850D}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -650,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -666,93 +757,64 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
@@ -780,36 +842,170 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6550041C-62D9-4E56-B1F7-839C7F1B65C9}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1058,34 +1254,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1102,23 +1290,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_login.xlsx
+++ b/guide41_login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E88053-A85C-4A92-8185-7457F493009E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01964162-4ACF-4112-BBF0-DABE407DACE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>header1</t>
   </si>
@@ -78,10 +78,6 @@
   </si>
   <si>
     <t>login3.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="logout"&gt;&lt;/a&gt;広大moodleからログアウトする&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -546,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A65C027-461C-42B5-9A75-6C6070AF7C8F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -561,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -569,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -577,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -587,12 +583,12 @@
     <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -607,10 +603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22334E2-1BEA-460B-9D17-129B263B506E}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -631,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -647,21 +643,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
@@ -707,6 +704,9 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -717,10 +717,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0046895-808A-4980-A292-EDEC4491850D}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -757,46 +757,47 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
@@ -842,6 +843,9 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -853,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6550041C-62D9-4E56-B1F7-839C7F1B65C9}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -875,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -891,20 +895,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
@@ -979,33 +979,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1254,26 +1227,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1290,4 +1271,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_login.xlsx
+++ b/guide41_login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01964162-4ACF-4112-BBF0-DABE407DACE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011789C4-BE0A-4BD5-B8F7-2CADCB36086F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="4" r:id="rId1"/>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A65C027-461C-42B5-9A75-6C6070AF7C8F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -720,7 +720,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -773,12 +773,7 @@
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
@@ -789,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -797,7 +792,12 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
@@ -850,6 +850,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -857,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6550041C-62D9-4E56-B1F7-839C7F1B65C9}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -979,6 +980,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1227,34 +1255,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1271,23 +1291,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_login.xlsx
+++ b/guide41_login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011789C4-BE0A-4BD5-B8F7-2CADCB36086F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B23163-3533-4CD7-8809-B349CEEF08EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="4" r:id="rId1"/>
@@ -81,17 +81,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【編集中】</t>
-    <rPh sb="1" eb="4">
-      <t>ヘンシュウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>index</t>
-  </si>
-  <si>
-    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
   </si>
   <si>
     <t>広大moodle 教職員向けマニュアル _ログイン/ログアウト</t>
@@ -113,13 +103,28 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>広大moodleへアクセスする</t>
-  </si>
-  <si>
     <t>広大moodleへログインする</t>
   </si>
   <si>
     <t>広大moodleからログアウトする</t>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現在作成中です。
+順次公開いたしますので、公開前のページについては過去のマニュアルを参照してください。
+■過去のマニュアル
+https://support.vle.hiroshima-u.ac.jp/files/public/hirodai-moodle-faculty-document-20230306.pdf</t>
+    <rPh sb="53" eb="55">
+      <t>カコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大moodleへアクセスする【準備中】</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -542,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A65C027-461C-42B5-9A75-6C6070AF7C8F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -557,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -565,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -573,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -583,12 +588,12 @@
     <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -605,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22334E2-1BEA-460B-9D17-129B263B506E}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -627,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -643,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -654,10 +659,10 @@
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -741,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -757,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -880,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -896,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -980,33 +985,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1255,26 +1233,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1291,4 +1277,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_login.xlsx
+++ b/guide41_login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B23163-3533-4CD7-8809-B349CEEF08EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3737C7E8-0700-49F0-B48E-A81AA2E71F56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="4" r:id="rId1"/>
@@ -49,14 +49,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>広島大学の IdP で「広大 ID」と「広大パスワード」で認証すると、下図の画面が表示されます</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面右上の▼（ユーザメニュー）をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>［ログアウト］をクリックします</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -124,6 +116,23 @@
   </si>
   <si>
     <t>広大moodleへアクセスする【準備中】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広島大学　学術認証フェデレーションの画面で「広大 ID」と「広大パスワード」で認証すると、右図の画面が表示されます</t>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）をクリックします</t>
+    <rPh sb="12" eb="13">
+      <t>ヨコ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -562,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -570,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -578,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -588,12 +597,12 @@
     <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -610,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22334E2-1BEA-460B-9D17-129B263B506E}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -632,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -648,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -662,7 +671,7 @@
     <row r="7" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -725,7 +734,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -746,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -762,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -776,7 +785,7 @@
     <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6"/>
     </row>
@@ -786,22 +795,22 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -863,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6550041C-62D9-4E56-B1F7-839C7F1B65C9}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -885,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -901,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -915,19 +924,19 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -985,6 +994,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1233,34 +1269,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1277,23 +1305,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_login.xlsx
+++ b/guide41_login.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3737C7E8-0700-49F0-B48E-A81AA2E71F56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B882125A-F4EC-4DDE-B520-F6D83F4CFFDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="4" r:id="rId1"/>
@@ -119,19 +119,62 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>広島大学　学術認証フェデレーションの画面で「広大 ID」と「広大パスワード」で認証すると、右図の画面が表示されます</t>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）をクリックします</t>
     <rPh sb="12" eb="13">
       <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広島大学　学術認証フェデレーションの画面で「広大 ID」と「広大パスワード」で認証すると、右図の画面が表示されます
+※学外のネットワークからアクセスする場合、「広大 ID」と「広大パスワード」の入力後、多要素認証を求められます
+詳しくは、以下のページをご確認ください
+■広島大学情報メディア教育研究センターHP/すべてのサービス/多要素認証
+https://www.media.hiroshima-u.ac.jp/services/mfa/</t>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ガクガイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="97" eb="100">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <rPh sb="101" eb="106">
+      <t>タヨウソニンショウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="135" eb="139">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ケンキュウ</t>
+    </rPh>
+    <rPh sb="165" eb="170">
+      <t>タヨウソニンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -733,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0046895-808A-4980-A292-EDEC4491850D}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -801,10 +844,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -872,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6550041C-62D9-4E56-B1F7-839C7F1B65C9}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -924,7 +967,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
